--- a/eventData.xlsx
+++ b/eventData.xlsx
@@ -1396,13 +1396,13 @@
     <t>1801/07/18</t>
   </si>
   <si>
-    <t>1 Jan 1801/01/01</t>
-  </si>
-  <si>
     <t>1793/02/01</t>
   </si>
   <si>
     <t>1789/07/17</t>
+  </si>
+  <si>
+    <t>1801/01/01</t>
   </si>
 </sst>
 </file>
@@ -1875,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="88" workbookViewId="0">
+      <selection activeCell="E172" sqref="E172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="4" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B4" s="7">
         <v>1790</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="26" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B9" s="10">
         <v>1815</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="25" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="6" t="s">

--- a/eventData.xlsx
+++ b/eventData.xlsx
@@ -1294,9 +1294,6 @@
     <t>FRA;ESPSpain</t>
   </si>
   <si>
-    <t>GBR; IND; BUR</t>
-  </si>
-  <si>
     <t>Check!!!</t>
   </si>
   <si>
@@ -1330,9 +1327,6 @@
     <t>51.419882, -0.078542</t>
   </si>
   <si>
-    <t>GBR; BUR</t>
-  </si>
-  <si>
     <t>CCHECK</t>
   </si>
   <si>
@@ -1502,6 +1496,12 @@
   </si>
   <si>
     <t>-35.307500, 149.124417</t>
+  </si>
+  <si>
+    <t>GBR; MMR</t>
+  </si>
+  <si>
+    <t>GBR; IND; MMR</t>
   </si>
 </sst>
 </file>
@@ -1984,8 +1984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="88" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147"/>
+    <sheetView tabSelected="1" topLeftCell="D59" zoomScale="88" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2062,15 +2062,15 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="17" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -2082,13 +2082,13 @@
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -2120,13 +2120,13 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -2385,7 +2385,7 @@
         <v>125</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
@@ -2764,13 +2764,13 @@
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="17" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -3326,15 +3326,15 @@
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G58" s="26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
@@ -3812,10 +3812,10 @@
         <v>121</v>
       </c>
       <c r="G78" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="H78" s="12" t="s">
         <v>414</v>
-      </c>
-      <c r="H78" s="12" t="s">
-        <v>415</v>
       </c>
       <c r="I78" s="12" t="s">
         <v>125</v>
@@ -3886,7 +3886,7 @@
         <v>121</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H81" s="12"/>
       <c r="I81" s="12" t="s">
@@ -3910,7 +3910,7 @@
         <v>121</v>
       </c>
       <c r="G82" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
@@ -4022,7 +4022,7 @@
         <v>121</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H87" s="12"/>
       <c r="I87" s="6" t="s">
@@ -4114,7 +4114,7 @@
         <v>121</v>
       </c>
       <c r="G91" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H91" s="12"/>
       <c r="I91" s="6" t="s">
@@ -4138,7 +4138,7 @@
         <v>121</v>
       </c>
       <c r="G92" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H92" s="12"/>
       <c r="I92" s="6" t="s">
@@ -4246,7 +4246,7 @@
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
@@ -4262,20 +4262,20 @@
         <v>1839</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="17" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
       <c r="J98" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.45">
@@ -4284,18 +4284,18 @@
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I99" s="6"/>
       <c r="J99" s="6" t="s">
@@ -4356,7 +4356,7 @@
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B109" s="6"/>
       <c r="C109" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
@@ -4544,7 +4544,7 @@
         <v>121</v>
       </c>
       <c r="G111" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H111" s="12"/>
       <c r="I111" s="12" t="s">
@@ -4568,7 +4568,7 @@
         <v>259</v>
       </c>
       <c r="G112" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H112" s="12"/>
       <c r="I112" s="12" t="s">
@@ -4590,7 +4590,7 @@
         <v>121</v>
       </c>
       <c r="G113" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H113" s="12"/>
       <c r="I113" s="12" t="s">
@@ -4612,7 +4612,7 @@
         <v>121</v>
       </c>
       <c r="G114" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
@@ -4634,10 +4634,10 @@
         <v>121</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I115" s="12"/>
       <c r="J115" s="6" t="s">
@@ -4660,7 +4660,7 @@
         <v>270</v>
       </c>
       <c r="G116" s="22" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H116" s="23"/>
       <c r="I116" s="23"/>
@@ -4704,7 +4704,7 @@
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="23" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H118" s="23"/>
       <c r="I118" s="23"/>
@@ -4730,7 +4730,7 @@
         <v>121</v>
       </c>
       <c r="G119" s="23" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H119" s="23"/>
       <c r="I119" s="23"/>
@@ -4752,7 +4752,7 @@
         <v>121</v>
       </c>
       <c r="G120" s="17" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H120" s="23"/>
       <c r="I120" s="23"/>
@@ -4802,7 +4802,7 @@
         <v>121</v>
       </c>
       <c r="G122" s="23" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H122" s="23" t="s">
         <v>12</v>
@@ -4832,7 +4832,7 @@
         <v>121</v>
       </c>
       <c r="G123" s="24" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H123" s="24"/>
       <c r="I123" s="6" t="s">
@@ -4856,7 +4856,7 @@
         <v>121</v>
       </c>
       <c r="G124" s="23" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H124" s="23"/>
       <c r="I124" s="23"/>
@@ -4895,7 +4895,7 @@
         <v>121</v>
       </c>
       <c r="G126" s="17" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H126" s="24"/>
       <c r="I126" s="24" t="s">
@@ -4922,7 +4922,7 @@
         <v>69</v>
       </c>
       <c r="H127" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I127" s="6"/>
       <c r="J127" s="6" t="s">
@@ -4967,7 +4967,7 @@
         <v>121</v>
       </c>
       <c r="G129" s="17" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H129" s="24"/>
       <c r="I129" s="6"/>
@@ -5048,10 +5048,10 @@
         <v>121</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I133" s="6" t="s">
         <v>128</v>
@@ -5169,7 +5169,7 @@
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
       <c r="G139" s="12" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H139" s="12"/>
       <c r="I139" s="12"/>
@@ -5181,13 +5181,13 @@
       </c>
       <c r="B140" s="6"/>
       <c r="C140" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D140" s="6"/>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
       <c r="G140" s="12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H140" s="12"/>
       <c r="I140" s="12"/>
@@ -5209,7 +5209,7 @@
         <v>69</v>
       </c>
       <c r="H141" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I141" s="15"/>
       <c r="J141" s="6" t="s">
@@ -5221,15 +5221,15 @@
         <v>1870</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
       <c r="G142" s="15" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H142" s="24"/>
       <c r="I142" s="15"/>
@@ -5286,7 +5286,7 @@
         <v>121</v>
       </c>
       <c r="G145" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H145" s="12"/>
       <c r="I145" s="6"/>
@@ -5391,7 +5391,7 @@
         <v>121</v>
       </c>
       <c r="G150" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H150" s="12"/>
       <c r="I150" s="6"/>
@@ -5409,7 +5409,7 @@
       <c r="E151" s="6"/>
       <c r="F151" s="21"/>
       <c r="G151" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H151" s="12"/>
       <c r="I151" s="6" t="s">
@@ -5498,7 +5498,7 @@
         <v>1880</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
@@ -5604,7 +5604,7 @@
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H161" s="12"/>
       <c r="I161" s="12"/>
@@ -5720,13 +5720,13 @@
       </c>
       <c r="B167" s="6"/>
       <c r="C167" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
       <c r="G167" s="27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H167" s="12"/>
       <c r="I167" s="12"/>
@@ -5744,7 +5744,7 @@
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H168" s="12"/>
       <c r="I168" s="12"/>
@@ -5764,7 +5764,7 @@
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
       <c r="G169" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H169" s="12"/>
       <c r="I169" s="12"/>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="B178" s="4"/>
       <c r="C178" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D178" s="6"/>
       <c r="E178" s="6"/>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="B179" s="4"/>
       <c r="C179" s="8" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
@@ -6075,7 +6075,7 @@
         <v>121</v>
       </c>
       <c r="G184" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H184" s="8"/>
       <c r="I184" s="6"/>
@@ -6159,13 +6159,13 @@
       </c>
       <c r="B188" s="6"/>
       <c r="C188" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D188" s="6"/>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
       <c r="G188" s="17" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H188" s="8"/>
       <c r="I188" s="6"/>
@@ -6185,7 +6185,7 @@
         <v>121</v>
       </c>
       <c r="G189" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H189" s="8"/>
       <c r="I189" s="6"/>
@@ -6207,7 +6207,7 @@
         <v>121</v>
       </c>
       <c r="G190" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H190" s="8"/>
       <c r="I190" s="6"/>
@@ -6229,7 +6229,7 @@
         <v>121</v>
       </c>
       <c r="G191" s="17" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H191" s="8"/>
       <c r="I191" s="6"/>
@@ -6251,7 +6251,7 @@
         <v>121</v>
       </c>
       <c r="G192" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H192" s="8"/>
       <c r="I192" s="6"/>
@@ -6275,7 +6275,7 @@
         <v>121</v>
       </c>
       <c r="G193" s="8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H193" s="8"/>
       <c r="I193" s="6"/>
@@ -6299,7 +6299,7 @@
         <v>121</v>
       </c>
       <c r="G194" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H194" s="8"/>
       <c r="I194" s="6"/>
@@ -6319,7 +6319,7 @@
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
       <c r="G195" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H195" s="14"/>
       <c r="I195" s="6"/>

--- a/eventData.xlsx
+++ b/eventData.xlsx
@@ -1984,8 +1984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D59" zoomScale="88" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2271,9 +2271,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="6">
-        <v>1795</v>
-      </c>
+      <c r="A13" s="6"/>
       <c r="B13" s="11"/>
       <c r="C13" s="6" t="s">
         <v>132</v>
